--- a/Outline.xlsx
+++ b/Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f683a78162ead6b/Documents/BSc Winfo/04-Big Data and Financial Analytics/Group Project/ICMFBigDataFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDB7021-8062-464D-8373-87991DA62660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5BDB7021-8062-464D-8373-87991DA62660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77810FC1-A5CE-FD42-90E2-36A0323C781F}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1200" windowWidth="26340" windowHeight="15460" xr2:uid="{D7B85509-D5CE-EF45-9B3C-C5A7204A6F8F}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9C8064-8562-B24A-8B0F-1AC129A41026}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,6 +691,7 @@
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">

--- a/Outline.xlsx
+++ b/Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f683a78162ead6b/Documents/BSc Winfo/04-Big Data and Financial Analytics/Group Project/ICMFBigDataFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5BDB7021-8062-464D-8373-87991DA62660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77810FC1-A5CE-FD42-90E2-36A0323C781F}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{5BDB7021-8062-464D-8373-87991DA62660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E27D0F-C5DD-D94D-B246-1BED5C02F9FE}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1200" windowWidth="26340" windowHeight="15460" xr2:uid="{D7B85509-D5CE-EF45-9B3C-C5A7204A6F8F}"/>
+    <workbookView xWindow="13240" yWindow="1480" windowWidth="13600" windowHeight="15460" xr2:uid="{D7B85509-D5CE-EF45-9B3C-C5A7204A6F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Structure</t>
   </si>
@@ -138,33 +138,18 @@
     <t>Provides a brief summary of the report’s structure and content.</t>
   </si>
   <si>
-    <t>Conceptual Framework</t>
-  </si>
-  <si>
-    <t>Discusses the theoretical foundations behind employer reputation and its connection to data analytics.</t>
-  </si>
-  <si>
     <t>Introduces the QS World University Ranking dataset as the primary data source.</t>
   </si>
   <si>
     <t>Explains relevant variables (e.g., academic reputation, employer reputation) and their roles in the analysis.</t>
   </si>
   <si>
-    <t>Data Preprocessing and Cleaning</t>
-  </si>
-  <si>
     <t>Describes methods for handling missing values, outliers, and inconsistencies in the dataset.</t>
   </si>
   <si>
-    <t>Feature Engineering and Selection</t>
-  </si>
-  <si>
     <t>Details the process of transforming raw data into meaningful features, including the treatment of categorical variables (e.g., dummy encoding).</t>
   </si>
   <si>
-    <t>Analytical/Methodological Overview</t>
-  </si>
-  <si>
     <t>Explains the chosen machine learning techniques (e.g., regression, decision trees) and the rationale behind these choices.</t>
   </si>
   <si>
@@ -174,15 +159,6 @@
     <t>Lists the programming environment (Python, Jupyter Notebook) and libraries (pandas, scikit-learn, etc.) used in the project.</t>
   </si>
   <si>
-    <t>Ethical and Practical Considerations</t>
-  </si>
-  <si>
-    <t>Addresses any ethical concerns and practical limitations related to the data and methodology.</t>
-  </si>
-  <si>
-    <t>Experimental Design and Data Splitting</t>
-  </si>
-  <si>
     <t>Describes how the dataset is divided into training, validation, and test sets, and the reasoning behind the split.</t>
   </si>
   <si>
@@ -192,21 +168,12 @@
     <t>Provides details on the algorithm implementation, model training processes, and hyperparameter tuning strategies.</t>
   </si>
   <si>
-    <t>Evaluation Metrics and Validation Strategy</t>
-  </si>
-  <si>
     <t>Defines the performance metrics (e.g., RMSE, R², accuracy) and outlines the cross-validation (e.g., k-fold analysis) techniques used.</t>
   </si>
   <si>
-    <t>Robustness Checks and Sensitivity Analysis</t>
-  </si>
-  <si>
     <t>Discusses additional tests performed to ensure the stability and reliability of the models.</t>
   </si>
   <si>
-    <t>Descriptive Statistics and Exploratory Data Analysis</t>
-  </si>
-  <si>
     <t>Presents summary statistics, data distributions, and correlation maps to visualize relationships in the dataset.</t>
   </si>
   <si>
@@ -285,13 +252,34 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Key Variables</t>
-  </si>
-  <si>
     <t>Methodology</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Data Preprocessing</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Variable Description</t>
+  </si>
+  <si>
+    <t>Methodological Foundation</t>
+  </si>
+  <si>
+    <t>Model Specification</t>
+  </si>
+  <si>
+    <t>Perfomance Metrics and Validation Strategy</t>
+  </si>
+  <si>
+    <t>Robustness Checks</t>
+  </si>
+  <si>
+    <t>Descriptive and Exploratory Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -361,6 +349,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9C8064-8562-B24A-8B0F-1AC129A41026}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,7 +688,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -763,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -774,10 +766,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -785,10 +777,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -796,10 +788,10 @@
         <v>2.4</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -807,10 +799,10 @@
         <v>2.5</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -818,231 +810,209 @@
         <v>2.6</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>2.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>3.1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
+        <v>5.3</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>5.4</v>
+        <v>6.1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>6.1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
+        <v>6.3</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>6.3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>6.4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Outline.xlsx
+++ b/Outline.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9C8064-8562-B24A-8B0F-1AC129A41026}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
